--- a/Login/bin/Debug/Accounts.xlsx
+++ b/Login/bin/Debug/Accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\C#\Login\Login\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420C9E6-D26E-469F-8639-2CC951F1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7538AA-A11E-4052-9015-2418AB71F043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33765" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>f68fIfRW8N5#</t>
+  </si>
+  <si>
+    <t>asdfda@gmail.com</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>asad123@</t>
+  </si>
+  <si>
+    <t>lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>asd1@</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -459,6 +474,27 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F906956C-B010-42FA-8CED-1F717BA6B22D}"/>

--- a/Login/bin/Debug/Accounts.xlsx
+++ b/Login/bin/Debug/Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\C#\Login\Login\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7538AA-A11E-4052-9015-2418AB71F043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164F1B4-7B89-43F4-8C54-592E9BAB57DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33765" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>asad123@</t>
   </si>
   <si>
-    <t>lopez@gmail.com</t>
-  </si>
-  <si>
-    <t>asd1@</t>
+    <t>abs@gmail.com</t>
+  </si>
+  <si>
+    <t>asd123@</t>
   </si>
 </sst>
 </file>
